--- a/resource/client_frontend_bugs.xlsx
+++ b/resource/client_frontend_bugs.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\hifreshbox\resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="18195" windowHeight="7740"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Bug #</t>
   </si>
@@ -181,12 +186,15 @@
   </si>
   <si>
     <t>Unsubscribe button, what does it do? It is supposed to remove you from Subscription.</t>
+  </si>
+  <si>
+    <t>Information wrong for current week</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,7 +217,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +227,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -259,6 +297,36 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -270,6 +338,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -318,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -562,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -589,62 +660,62 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
@@ -661,26 +732,26 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -709,78 +780,78 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -809,14 +880,14 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
     </row>
@@ -953,42 +1024,42 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -1000,16 +1071,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:5" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="7" t="s">
         <v>54</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/resource/client_frontend_bugs.xlsx
+++ b/resource/client_frontend_bugs.xlsx
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -327,6 +327,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,7 +642,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,14 +702,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -756,14 +762,14 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -842,30 +848,30 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -892,14 +898,14 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -928,38 +934,38 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1024,14 +1030,14 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="15" t="s">
         <v>48</v>
       </c>
     </row>

--- a/resource/client_frontend_bugs.xlsx
+++ b/resource/client_frontend_bugs.xlsx
@@ -642,7 +642,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -702,14 +702,14 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -726,14 +726,14 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -994,38 +994,38 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>46</v>
       </c>
     </row>

--- a/resource/client_frontend_bugs.xlsx
+++ b/resource/client_frontend_bugs.xlsx
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.28515625" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -910,26 +910,26 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
@@ -970,26 +970,26 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>43</v>
       </c>
     </row>
